--- a/formatos_hoja_de_calculo/CE-TABLET-10391-1.xlsx
+++ b/formatos_hoja_de_calculo/CE-TABLET-10391-1.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31945586-C7D5-479D-B626-032E7A19E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$A$1:$X$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$340</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7563" uniqueCount="1438">
   <si>
     <t>FECHA DE ENTREGA</t>
   </si>
@@ -4336,25 +4342,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4365,10 +4364,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -4387,7 +4383,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -4401,8 +4403,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF335593"/>
       </right>
@@ -4412,6 +4416,7 @@
       <bottom style="thin">
         <color rgb="FF335593"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4426,8 +4431,10 @@
       <bottom style="thin">
         <color rgb="FF335593"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF2F5597"/>
       </right>
@@ -4437,6 +4444,7 @@
       <bottom style="thin">
         <color rgb="FF2F5597"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4451,48 +4459,47 @@
       <bottom style="thin">
         <color rgb="FF2F5597"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4782,24 +4789,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AB341"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="65.140625" customWidth="true" style="0"/>
-    <col min="24" max="24" width="51" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" customWidth="1"/>
+    <col min="24" max="24" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" customHeight="1" ht="45">
+    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="true">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45118</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="true">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45118</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="true">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45118</v>
       </c>
@@ -5085,7 +5090,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="true">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45118</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="true">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45118</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:28" hidden="true">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45118</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="true">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45118</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="true">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45118</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="true">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45118</v>
       </c>
@@ -5513,7 +5518,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="true">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45118</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="true">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45118</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" hidden="true">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45118</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="true">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45118</v>
       </c>
@@ -5799,7 +5804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="true">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45118</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="true">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45118</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="true">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45118</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="true">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45118</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="true">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45118</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:28" hidden="true">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45118</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="true">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45118</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="true">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45118</v>
       </c>
@@ -6367,7 +6372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="true">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45118</v>
       </c>
@@ -6439,7 +6444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:28" hidden="true">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45118</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="true">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45118</v>
       </c>
@@ -6583,7 +6588,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="true">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45118</v>
       </c>
@@ -6655,7 +6660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="true">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45118</v>
       </c>
@@ -6727,7 +6732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="true">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45118</v>
       </c>
@@ -6797,7 +6802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="true">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45118</v>
       </c>
@@ -6869,7 +6874,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="true">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45118</v>
       </c>
@@ -6941,7 +6946,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="true">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45118</v>
       </c>
@@ -7013,7 +7018,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="true">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45118</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="true">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45118</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="true">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45118</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="true">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45118</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="true">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45118</v>
       </c>
@@ -7367,7 +7372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="true">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45118</v>
       </c>
@@ -7439,7 +7444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="true">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45118</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="true">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45118</v>
       </c>
@@ -7583,7 +7588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="true">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45118</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="true">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45118</v>
       </c>
@@ -7727,7 +7732,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="true">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45118</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="true">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45118</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="true">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45118</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="true">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45118</v>
       </c>
@@ -8013,7 +8018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="true">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45118</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="true">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45118</v>
       </c>
@@ -8157,7 +8162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="true">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45118</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:28" hidden="true">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45118</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:28" hidden="true">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45118</v>
       </c>
@@ -8369,7 +8374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:28" hidden="true">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45118</v>
       </c>
@@ -8441,7 +8446,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:28" hidden="true">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45118</v>
       </c>
@@ -8513,7 +8518,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:28" hidden="true">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45118</v>
       </c>
@@ -8585,7 +8590,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:28" hidden="true">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45118</v>
       </c>
@@ -8657,7 +8662,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:28" hidden="true">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45118</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:28" hidden="true">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45118</v>
       </c>
@@ -8801,7 +8806,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="true">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45118</v>
       </c>
@@ -8871,7 +8876,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:28" hidden="true">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45118</v>
       </c>
@@ -8941,7 +8946,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:28" hidden="true">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45118</v>
       </c>
@@ -9013,7 +9018,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:28" hidden="true">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45118</v>
       </c>
@@ -9085,7 +9090,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:28" hidden="true">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45118</v>
       </c>
@@ -9157,7 +9162,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:28" hidden="true">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45118</v>
       </c>
@@ -9229,7 +9234,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="true">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45118</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="true">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45118</v>
       </c>
@@ -9371,7 +9376,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="true">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45118</v>
       </c>
@@ -9443,7 +9448,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="66" spans="1:28" hidden="true">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45118</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="67" spans="1:28" hidden="true">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45118</v>
       </c>
@@ -9587,7 +9592,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:28" hidden="true">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45118</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:28" hidden="true">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45118</v>
       </c>
@@ -9727,7 +9732,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="true">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45118</v>
       </c>
@@ -9797,7 +9802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="true">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45118</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72" spans="1:28" hidden="true">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45118</v>
       </c>
@@ -9937,7 +9942,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:28" hidden="true">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45118</v>
       </c>
@@ -10007,7 +10012,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:28" hidden="true">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45118</v>
       </c>
@@ -10077,7 +10082,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:28" hidden="true">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45118</v>
       </c>
@@ -10149,7 +10154,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:28" hidden="true">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45118</v>
       </c>
@@ -10221,7 +10226,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="77" spans="1:28" hidden="true">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45118</v>
       </c>
@@ -10293,7 +10298,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="true">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45118</v>
       </c>
@@ -10365,7 +10370,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="true">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45118</v>
       </c>
@@ -10437,7 +10442,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="1:28" hidden="true">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45118</v>
       </c>
@@ -10507,7 +10512,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="true">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45118</v>
       </c>
@@ -10577,7 +10582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="true">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45118</v>
       </c>
@@ -10647,7 +10652,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="true">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45118</v>
       </c>
@@ -10717,7 +10722,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:28" hidden="true">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45118</v>
       </c>
@@ -10787,7 +10792,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="true">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45118</v>
       </c>
@@ -10859,7 +10864,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="true">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45118</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="true">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45118</v>
       </c>
@@ -11003,7 +11008,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="true">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45118</v>
       </c>
@@ -11075,7 +11080,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:28" hidden="true">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45118</v>
       </c>
@@ -11147,7 +11152,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="true">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45118</v>
       </c>
@@ -11219,7 +11224,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="true">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45118</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="true">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45118</v>
       </c>
@@ -11361,7 +11366,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="93" spans="1:28" hidden="true">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45118</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="94" spans="1:28" hidden="true">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45118</v>
       </c>
@@ -11503,7 +11508,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="true">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45118</v>
       </c>
@@ -11575,7 +11580,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="96" spans="1:28" hidden="true">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45118</v>
       </c>
@@ -11647,7 +11652,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="97" spans="1:28" hidden="true">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45118</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="true">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45118</v>
       </c>
@@ -11791,7 +11796,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="99" spans="1:28" hidden="true">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45118</v>
       </c>
@@ -11863,7 +11868,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="100" spans="1:28" hidden="true">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45118</v>
       </c>
@@ -11935,7 +11940,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:28" hidden="true">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45118</v>
       </c>
@@ -12007,7 +12012,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="102" spans="1:28" hidden="true">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45118</v>
       </c>
@@ -12079,7 +12084,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:28" hidden="true">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45118</v>
       </c>
@@ -12149,7 +12154,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="104" spans="1:28" hidden="true">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45118</v>
       </c>
@@ -12221,7 +12226,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="105" spans="1:28" hidden="true">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45118</v>
       </c>
@@ -12293,7 +12298,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="true">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45118</v>
       </c>
@@ -12365,7 +12370,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="107" spans="1:28" hidden="true">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45118</v>
       </c>
@@ -12433,7 +12438,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="108" spans="1:28" hidden="true">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45118</v>
       </c>
@@ -12505,7 +12510,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="109" spans="1:28" hidden="true">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45118</v>
       </c>
@@ -12577,7 +12582,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="110" spans="1:28" hidden="true">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45118</v>
       </c>
@@ -12645,7 +12650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:28" hidden="true">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45118</v>
       </c>
@@ -12715,7 +12720,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="112" spans="1:28" hidden="true">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45118</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="113" spans="1:28" hidden="true">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45118</v>
       </c>
@@ -12857,7 +12862,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="114" spans="1:28" hidden="true">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45118</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="true">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45118</v>
       </c>
@@ -13001,7 +13006,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="true">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45118</v>
       </c>
@@ -13071,7 +13076,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="117" spans="1:28" hidden="true">
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45118</v>
       </c>
@@ -13143,7 +13148,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="true">
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45118</v>
       </c>
@@ -13215,7 +13220,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="true">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45118</v>
       </c>
@@ -13285,7 +13290,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="120" spans="1:28" hidden="true">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45118</v>
       </c>
@@ -13355,7 +13360,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="121" spans="1:28" hidden="true">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>45118</v>
       </c>
@@ -13425,7 +13430,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:28" hidden="true">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45118</v>
       </c>
@@ -13497,7 +13502,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="true">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45118</v>
       </c>
@@ -13565,7 +13570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="true">
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45118</v>
       </c>
@@ -13635,7 +13640,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="true">
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45118</v>
       </c>
@@ -13707,7 +13712,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="true">
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45118</v>
       </c>
@@ -13779,7 +13784,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="true">
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45118</v>
       </c>
@@ -13851,7 +13856,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="128" spans="1:28" hidden="true">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45118</v>
       </c>
@@ -13923,7 +13928,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="true">
+    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45118</v>
       </c>
@@ -13995,7 +14000,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="true">
+    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45118</v>
       </c>
@@ -14067,7 +14072,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45118</v>
       </c>
@@ -14149,7 +14154,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45118</v>
       </c>
@@ -14233,7 +14238,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45118</v>
       </c>
@@ -14317,7 +14322,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>45118</v>
       </c>
@@ -14397,7 +14402,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>45118</v>
       </c>
@@ -14481,7 +14486,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>45118</v>
       </c>
@@ -14565,7 +14570,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45118</v>
       </c>
@@ -14649,7 +14654,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45118</v>
       </c>
@@ -14733,7 +14738,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45118</v>
       </c>
@@ -14817,7 +14822,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45118</v>
       </c>
@@ -14897,7 +14902,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45118</v>
       </c>
@@ -14981,7 +14986,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45118</v>
       </c>
@@ -15065,7 +15070,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45118</v>
       </c>
@@ -15147,7 +15152,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45118</v>
       </c>
@@ -15231,7 +15236,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45118</v>
       </c>
@@ -15315,7 +15320,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45118</v>
       </c>
@@ -15399,7 +15404,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45118</v>
       </c>
@@ -15483,7 +15488,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45118</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45118</v>
       </c>
@@ -15651,7 +15656,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45118</v>
       </c>
@@ -15731,7 +15736,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45118</v>
       </c>
@@ -15815,7 +15820,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45118</v>
       </c>
@@ -15899,7 +15904,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45118</v>
       </c>
@@ -15981,7 +15986,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45118</v>
       </c>
@@ -16063,7 +16068,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45118</v>
       </c>
@@ -16145,7 +16150,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45118</v>
       </c>
@@ -16227,7 +16232,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45118</v>
       </c>
@@ -16309,7 +16314,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45118</v>
       </c>
@@ -16391,7 +16396,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45118</v>
       </c>
@@ -16475,7 +16480,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45118</v>
       </c>
@@ -16555,7 +16560,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45118</v>
       </c>
@@ -16639,7 +16644,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45118</v>
       </c>
@@ -16723,7 +16728,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45118</v>
       </c>
@@ -16807,7 +16812,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45118</v>
       </c>
@@ -16891,7 +16896,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45118</v>
       </c>
@@ -16975,7 +16980,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45118</v>
       </c>
@@ -17059,7 +17064,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45118</v>
       </c>
@@ -17139,7 +17144,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45118</v>
       </c>
@@ -17223,7 +17228,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45118</v>
       </c>
@@ -17303,7 +17308,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45118</v>
       </c>
@@ -17387,7 +17392,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45118</v>
       </c>
@@ -17471,7 +17476,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45118</v>
       </c>
@@ -17551,7 +17556,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45118</v>
       </c>
@@ -17631,7 +17636,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45118</v>
       </c>
@@ -17715,7 +17720,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45118</v>
       </c>
@@ -17799,7 +17804,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45118</v>
       </c>
@@ -17883,7 +17888,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45118</v>
       </c>
@@ -17967,7 +17972,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45118</v>
       </c>
@@ -18051,7 +18056,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45118</v>
       </c>
@@ -18133,7 +18138,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45118</v>
       </c>
@@ -18217,7 +18222,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>45118</v>
       </c>
@@ -18299,7 +18304,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>45118</v>
       </c>
@@ -18381,7 +18386,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45118</v>
       </c>
@@ -18465,7 +18470,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45118</v>
       </c>
@@ -18549,7 +18554,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>45118</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>45118</v>
       </c>
@@ -18717,7 +18722,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>45118</v>
       </c>
@@ -18801,7 +18806,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45118</v>
       </c>
@@ -18885,7 +18890,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>45118</v>
       </c>
@@ -18969,7 +18974,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>45118</v>
       </c>
@@ -19053,7 +19058,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>45118</v>
       </c>
@@ -19137,7 +19142,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>45118</v>
       </c>
@@ -19219,7 +19224,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>45118</v>
       </c>
@@ -19303,7 +19308,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>45118</v>
       </c>
@@ -19387,7 +19392,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>45118</v>
       </c>
@@ -19471,7 +19476,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>45118</v>
       </c>
@@ -19551,7 +19556,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>45118</v>
       </c>
@@ -19635,7 +19640,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>45118</v>
       </c>
@@ -19715,7 +19720,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>45118</v>
       </c>
@@ -19799,7 +19804,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>45118</v>
       </c>
@@ -19883,7 +19888,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>45118</v>
       </c>
@@ -19963,7 +19968,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>45118</v>
       </c>
@@ -20047,7 +20052,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>45118</v>
       </c>
@@ -20131,7 +20136,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>45118</v>
       </c>
@@ -20215,7 +20220,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>45118</v>
       </c>
@@ -20299,7 +20304,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>45118</v>
       </c>
@@ -20379,7 +20384,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>45118</v>
       </c>
@@ -20463,7 +20468,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>45118</v>
       </c>
@@ -20543,7 +20548,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>45118</v>
       </c>
@@ -20627,7 +20632,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>45118</v>
       </c>
@@ -20711,7 +20716,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>45118</v>
       </c>
@@ -20795,7 +20800,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45118</v>
       </c>
@@ -20877,7 +20882,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45118</v>
       </c>
@@ -20961,7 +20966,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45118</v>
       </c>
@@ -21045,7 +21050,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45118</v>
       </c>
@@ -21129,7 +21134,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>45118</v>
       </c>
@@ -21209,7 +21214,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45118</v>
       </c>
@@ -21291,7 +21296,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45118</v>
       </c>
@@ -21373,7 +21378,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45118</v>
       </c>
@@ -21455,7 +21460,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45118</v>
       </c>
@@ -21539,7 +21544,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45118</v>
       </c>
@@ -21623,7 +21628,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45118</v>
       </c>
@@ -21705,7 +21710,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45118</v>
       </c>
@@ -21787,7 +21792,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45118</v>
       </c>
@@ -21871,7 +21876,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45118</v>
       </c>
@@ -21955,7 +21960,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45118</v>
       </c>
@@ -22039,7 +22044,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45118</v>
       </c>
@@ -22121,7 +22126,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45118</v>
       </c>
@@ -22205,7 +22210,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45118</v>
       </c>
@@ -22289,7 +22294,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45118</v>
       </c>
@@ -22373,7 +22378,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45118</v>
       </c>
@@ -22457,7 +22462,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45118</v>
       </c>
@@ -22541,7 +22546,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45118</v>
       </c>
@@ -22625,7 +22630,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45118</v>
       </c>
@@ -22709,7 +22714,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45118</v>
       </c>
@@ -22793,7 +22798,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45118</v>
       </c>
@@ -22877,7 +22882,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45118</v>
       </c>
@@ -22961,7 +22966,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45118</v>
       </c>
@@ -23045,7 +23050,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45118</v>
       </c>
@@ -23129,7 +23134,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45118</v>
       </c>
@@ -23211,7 +23216,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>45118</v>
       </c>
@@ -23295,7 +23300,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>45118</v>
       </c>
@@ -23375,7 +23380,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>45118</v>
       </c>
@@ -23459,7 +23464,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>45118</v>
       </c>
@@ -23543,7 +23548,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>45118</v>
       </c>
@@ -23627,7 +23632,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>45118</v>
       </c>
@@ -23711,7 +23716,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>45118</v>
       </c>
@@ -23795,7 +23800,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="248" spans="1:28">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>45118</v>
       </c>
@@ -23879,7 +23884,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="249" spans="1:28">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>45118</v>
       </c>
@@ -23963,7 +23968,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="250" spans="1:28">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>45118</v>
       </c>
@@ -24043,7 +24048,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="251" spans="1:28">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>45118</v>
       </c>
@@ -24127,7 +24132,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="252" spans="1:28">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>45118</v>
       </c>
@@ -24211,7 +24216,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="253" spans="1:28">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>45118</v>
       </c>
@@ -24295,7 +24300,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="254" spans="1:28">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45118</v>
       </c>
@@ -24377,7 +24382,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="255" spans="1:28">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>45118</v>
       </c>
@@ -24459,7 +24464,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="256" spans="1:28">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>45118</v>
       </c>
@@ -24543,7 +24548,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="257" spans="1:28">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>45118</v>
       </c>
@@ -24625,7 +24630,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="258" spans="1:28">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>45118</v>
       </c>
@@ -24705,7 +24710,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="259" spans="1:28">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>45118</v>
       </c>
@@ -24787,7 +24792,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="260" spans="1:28">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>45118</v>
       </c>
@@ -24871,7 +24876,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="261" spans="1:28">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>45118</v>
       </c>
@@ -24955,7 +24960,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="262" spans="1:28">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>45118</v>
       </c>
@@ -25039,7 +25044,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="263" spans="1:28">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>45118</v>
       </c>
@@ -25123,7 +25128,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="264" spans="1:28">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>45118</v>
       </c>
@@ -25195,7 +25200,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="265" spans="1:28">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>45118</v>
       </c>
@@ -25275,7 +25280,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="266" spans="1:28">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>45118</v>
       </c>
@@ -25359,7 +25364,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="267" spans="1:28">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>45118</v>
       </c>
@@ -25429,7 +25434,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="true">
+    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45118</v>
       </c>
@@ -25501,7 +25506,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="true">
+    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45118</v>
       </c>
@@ -25573,7 +25578,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="true">
+    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45118</v>
       </c>
@@ -25645,7 +25650,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="true">
+    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45118</v>
       </c>
@@ -25717,7 +25722,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="true">
+    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45118</v>
       </c>
@@ -25789,7 +25794,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="true">
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45118</v>
       </c>
@@ -25861,7 +25866,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="274" spans="1:28" hidden="true">
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45118</v>
       </c>
@@ -25933,7 +25938,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="true">
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45118</v>
       </c>
@@ -26005,7 +26010,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="true">
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45118</v>
       </c>
@@ -26073,7 +26078,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="277" spans="1:28" hidden="true">
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45118</v>
       </c>
@@ -26145,7 +26150,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="true">
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45118</v>
       </c>
@@ -26215,7 +26220,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="279" spans="1:28" hidden="true">
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45118</v>
       </c>
@@ -26287,7 +26292,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="true">
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45118</v>
       </c>
@@ -26359,7 +26364,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="281" spans="1:28" hidden="true">
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45118</v>
       </c>
@@ -26431,7 +26436,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="282" spans="1:28" hidden="true">
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45118</v>
       </c>
@@ -26503,7 +26508,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="true">
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45118</v>
       </c>
@@ -26575,7 +26580,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="284" spans="1:28" hidden="true">
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45118</v>
       </c>
@@ -26647,7 +26652,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="285" spans="1:28" hidden="true">
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45118</v>
       </c>
@@ -26719,7 +26724,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="true">
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45118</v>
       </c>
@@ -26789,7 +26794,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="true">
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45118</v>
       </c>
@@ -26861,7 +26866,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="true">
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45118</v>
       </c>
@@ -26933,7 +26938,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="289" spans="1:28" hidden="true">
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45118</v>
       </c>
@@ -27005,7 +27010,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="290" spans="1:28" hidden="true">
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45118</v>
       </c>
@@ -27077,7 +27082,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="291" spans="1:28" hidden="true">
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45118</v>
       </c>
@@ -27147,7 +27152,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="292" spans="1:28" hidden="true">
+    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45118</v>
       </c>
@@ -27219,7 +27224,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="293" spans="1:28" hidden="true">
+    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45118</v>
       </c>
@@ -27291,7 +27296,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="294" spans="1:28" hidden="true">
+    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45118</v>
       </c>
@@ -27363,7 +27368,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="295" spans="1:28" hidden="true">
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45118</v>
       </c>
@@ -27435,7 +27440,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="296" spans="1:28" hidden="true">
+    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45118</v>
       </c>
@@ -27507,7 +27512,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="297" spans="1:28" hidden="true">
+    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45118</v>
       </c>
@@ -27579,7 +27584,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="298" spans="1:28" hidden="true">
+    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45118</v>
       </c>
@@ -27651,7 +27656,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="299" spans="1:28" hidden="true">
+    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45118</v>
       </c>
@@ -27723,7 +27728,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="300" spans="1:28" hidden="true">
+    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45118</v>
       </c>
@@ -27795,7 +27800,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="301" spans="1:28" hidden="true">
+    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>45118</v>
       </c>
@@ -27867,7 +27872,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="302" spans="1:28" hidden="true">
+    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>45118</v>
       </c>
@@ -27939,7 +27944,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="303" spans="1:28" hidden="true">
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>45118</v>
       </c>
@@ -28009,7 +28014,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="304" spans="1:28" hidden="true">
+    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>45118</v>
       </c>
@@ -28079,7 +28084,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="305" spans="1:28" hidden="true">
+    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>45118</v>
       </c>
@@ -28151,7 +28156,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="true">
+    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>45118</v>
       </c>
@@ -28223,7 +28228,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="true">
+    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>45118</v>
       </c>
@@ -28295,7 +28300,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="308" spans="1:28" hidden="true">
+    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>45118</v>
       </c>
@@ -28367,7 +28372,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="309" spans="1:28" hidden="true">
+    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>45118</v>
       </c>
@@ -28439,7 +28444,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="true">
+    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>45118</v>
       </c>
@@ -28511,7 +28516,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="true">
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>45118</v>
       </c>
@@ -28583,7 +28588,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="312" spans="1:28" hidden="true">
+    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>45118</v>
       </c>
@@ -28655,7 +28660,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="true">
+    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>45118</v>
       </c>
@@ -28723,7 +28728,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="true">
+    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>45118</v>
       </c>
@@ -28795,7 +28800,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="315" spans="1:28" hidden="true">
+    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>45118</v>
       </c>
@@ -28867,7 +28872,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="316" spans="1:28" hidden="true">
+    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>45118</v>
       </c>
@@ -28939,7 +28944,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="true">
+    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>45118</v>
       </c>
@@ -29011,7 +29016,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="true">
+    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>45118</v>
       </c>
@@ -29083,7 +29088,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="true">
+    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>45118</v>
       </c>
@@ -29153,7 +29158,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="true">
+    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>45118</v>
       </c>
@@ -29225,7 +29230,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="321" spans="1:28" hidden="true">
+    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>45118</v>
       </c>
@@ -29297,7 +29302,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="322" spans="1:28" hidden="true">
+    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>45118</v>
       </c>
@@ -29369,7 +29374,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="323" spans="1:28" hidden="true">
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>45118</v>
       </c>
@@ -29441,7 +29446,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="324" spans="1:28" hidden="true">
+    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>45118</v>
       </c>
@@ -29513,7 +29518,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="325" spans="1:28" hidden="true">
+    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>45118</v>
       </c>
@@ -29585,7 +29590,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="326" spans="1:28" hidden="true">
+    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>45118</v>
       </c>
@@ -29657,7 +29662,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="327" spans="1:28" hidden="true">
+    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>45118</v>
       </c>
@@ -29729,7 +29734,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="328" spans="1:28" hidden="true">
+    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>45118</v>
       </c>
@@ -29801,7 +29806,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="329" spans="1:28" hidden="true">
+    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>45118</v>
       </c>
@@ -29873,7 +29878,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="330" spans="1:28" hidden="true">
+    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>45118</v>
       </c>
@@ -29945,7 +29950,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="331" spans="1:28" hidden="true">
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>45118</v>
       </c>
@@ -30017,7 +30022,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="332" spans="1:28" hidden="true">
+    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>45118</v>
       </c>
@@ -30089,7 +30094,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="333" spans="1:28" hidden="true">
+    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>45118</v>
       </c>
@@ -30161,7 +30166,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="334" spans="1:28" hidden="true">
+    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>45118</v>
       </c>
@@ -30233,7 +30238,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="335" spans="1:28" hidden="true">
+    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>45118</v>
       </c>
@@ -30305,7 +30310,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="336" spans="1:28" hidden="true">
+    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>45118</v>
       </c>
@@ -30373,7 +30378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="337" spans="1:28" hidden="true">
+    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>45118</v>
       </c>
@@ -30445,7 +30450,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="338" spans="1:28" hidden="true">
+    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>45118</v>
       </c>
@@ -30517,7 +30522,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="339" spans="1:28" hidden="true">
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>45118</v>
       </c>
@@ -30589,7 +30594,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="340" spans="1:28" hidden="true">
+    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>45118</v>
       </c>
@@ -30661,29 +30666,15 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="341" spans="1:28">
-      <c r="B341"/>
-      <c r="K341"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:X340">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:X340" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="10391"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>